--- a/data/trans_orig/P1423-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC86A165-76D1-479C-A854-664DF77ED5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC50D0E3-A934-42B5-A865-AA7E61D49060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D0778CC-F38F-4C7C-8D35-3E78C303A0DE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F672757-9A90-4327-9493-D387823B9282}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -95,28 +95,28 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>94,72%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>88,68%</t>
   </si>
   <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,514 +164,508 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>89,83%</t>
   </si>
   <si>
     <t>92,48%</t>
@@ -683,7 +677,7 @@
     <t>93,41%</t>
   </si>
   <si>
-    <t>94,94%</t>
+    <t>94,92%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -695,61 +689,64 @@
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>4,02%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>10,16%</t>
@@ -758,28 +755,31 @@
     <t>9,09%</t>
   </si>
   <si>
-    <t>11,26%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>95,98%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>88,74%</t>
+    <t>88,79%</t>
   </si>
   <si>
     <t>90,91%</t>
@@ -788,10 +788,10 @@
     <t>93,21%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1257,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8132D302-53CF-4D86-BB19-834D756DF6F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15C3E8-6ED9-48F2-9E24-90501B5741B0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2128,7 +2128,7 @@
         <v>6159</v>
       </c>
       <c r="N18" s="7">
-        <v>6297244</v>
+        <v>6297245</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>96</v>
@@ -2179,7 +2179,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2212,7 +2212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8532A2-46DF-41D4-9FFC-D243EEB1E81B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91007965-3E06-429B-B895-E23C31ABC1D3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2387,13 +2387,13 @@
         <v>67241</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>243</v>
@@ -2402,13 +2402,13 @@
         <v>256925</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>304</v>
@@ -2417,13 +2417,13 @@
         <v>324167</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,13 +2438,13 @@
         <v>907402</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H6" s="7">
         <v>1004</v>
@@ -2453,13 +2453,13 @@
         <v>1080871</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M6" s="7">
         <v>1851</v>
@@ -2468,13 +2468,13 @@
         <v>1988273</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2593,13 +2593,13 @@
         <v>60401</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H9" s="7">
         <v>122</v>
@@ -2608,13 +2608,13 @@
         <v>130002</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M9" s="7">
         <v>176</v>
@@ -2623,13 +2623,13 @@
         <v>190403</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,7 +2644,7 @@
         <v>1903556</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>130</v>
@@ -2671,7 +2671,7 @@
         <v>3313</v>
       </c>
       <c r="N10" s="7">
-        <v>3528147</v>
+        <v>3528146</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>135</v>
@@ -2722,7 +2722,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3083,7 +3083,7 @@
         <v>5987</v>
       </c>
       <c r="N18" s="7">
-        <v>6425383</v>
+        <v>6425384</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>174</v>
@@ -3134,7 +3134,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970801</v>
+        <v>6970802</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3167,7 +3167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DBD638-F4A4-49ED-BF45-941E3F3E57DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E753C41-AAB3-40F7-8EF6-45FE028758A9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3345,10 +3345,10 @@
         <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>151</v>
@@ -3357,13 +3357,13 @@
         <v>167516</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>191</v>
@@ -3372,13 +3372,13 @@
         <v>207056</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3393,13 @@
         <v>714807</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="H6" s="7">
         <v>741</v>
@@ -3408,13 +3408,13 @@
         <v>827144</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M6" s="7">
         <v>1463</v>
@@ -3423,13 +3423,13 @@
         <v>1541951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3533,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3548,13 @@
         <v>60541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
@@ -3563,13 +3563,13 @@
         <v>173998</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -3578,13 +3578,13 @@
         <v>234539</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3599,13 @@
         <v>2015844</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>1748</v>
@@ -3614,13 +3614,13 @@
         <v>1814302</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>3642</v>
@@ -3629,13 +3629,13 @@
         <v>3830146</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,7 +3709,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3754,13 @@
         <v>10489</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3769,13 +3769,13 @@
         <v>17277</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -3784,13 +3784,13 @@
         <v>27765</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3805,13 @@
         <v>536397</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -3820,13 +3820,13 @@
         <v>531863</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>1003</v>
@@ -3835,13 +3835,13 @@
         <v>1068261</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3960,13 @@
         <v>110570</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -3975,13 +3975,13 @@
         <v>358790</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>433</v>
@@ -3990,13 +3990,13 @@
         <v>469360</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4011,13 @@
         <v>3267048</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H18" s="7">
         <v>3000</v>
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C67F52-BA52-440B-8870-1F2631E0D44B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A619F9-52B0-41D2-8290-B176E0275251}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4509,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4730,7 +4730,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>

--- a/data/trans_orig/P1423-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC50D0E3-A934-42B5-A865-AA7E61D49060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC61A47-CF9F-46FD-B3E0-654098C5E5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F672757-9A90-4327-9493-D387823B9282}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1E7F651-F4D4-4A9D-8162-23DFCA5B21B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="261">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>94,72%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>88,68%</t>
   </si>
   <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,25 +164,25 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>4,33%</t>
@@ -191,19 +191,19 @@
     <t>98,11%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>96,35%</t>
@@ -212,7 +212,7 @@
     <t>95,67%</t>
   </si>
   <si>
-    <t>96,95%</t>
+    <t>97,0%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,55 +230,55 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -287,55 +287,49 @@
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>3,79%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>96,21%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -350,52 +344,46 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>8,96%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -407,31 +395,31 @@
     <t>2,32%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>4,02%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>95,93%</t>
+    <t>95,98%</t>
   </si>
   <si>
     <t>97,68%</t>
@@ -440,19 +428,19 @@
     <t>92,59%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -467,112 +455,112 @@
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de depresión o ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -584,7 +572,10 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>7,11%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>16,84%</t>
@@ -593,25 +584,31 @@
     <t>14,5%</t>
   </si>
   <si>
-    <t>19,72%</t>
+    <t>19,39%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>13,47%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>92,89%</t>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>80,28%</t>
+    <t>80,61%</t>
   </si>
   <si>
     <t>85,5%</t>
@@ -620,7 +617,10 @@
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,53%</t>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -629,55 +629,55 @@
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -689,55 +689,37 @@
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>3,27%</t>
@@ -746,31 +728,28 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>3,96%</t>
+    <t>3,91%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>6,15%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>96,04%</t>
+    <t>96,09%</t>
   </si>
   <si>
     <t>97,31%</t>
@@ -779,19 +758,16 @@
     <t>89,84%</t>
   </si>
   <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>93,85%</t>
   </si>
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1257,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D15C3E8-6ED9-48F2-9E24-90501B5741B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBF3ABF-DCF4-4097-8F0E-C30EC14F6C94}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1662,7 @@
         <v>1617</v>
       </c>
       <c r="D10" s="7">
-        <v>1661463</v>
+        <v>1661464</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1737,7 +1713,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2053,10 +2029,10 @@
         <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>248</v>
@@ -2065,13 +2041,13 @@
         <v>257122</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -2080,13 +2056,13 @@
         <v>358496</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,16 +2074,16 @@
         <v>3110</v>
       </c>
       <c r="D18" s="7">
-        <v>3175170</v>
+        <v>3175169</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>3049</v>
@@ -2116,13 +2092,13 @@
         <v>3122076</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>6159</v>
@@ -2131,13 +2107,13 @@
         <v>6297245</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,7 +2125,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2193,7 +2169,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +2188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91007965-3E06-429B-B895-E23C31ABC1D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B736164-C0C6-4854-9095-DEC56E108381}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2229,7 +2205,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2342,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2372,7 +2348,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,13 +2363,13 @@
         <v>67241</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>243</v>
@@ -2402,13 +2378,13 @@
         <v>256925</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>304</v>
@@ -2417,13 +2393,13 @@
         <v>324167</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,13 +2414,13 @@
         <v>907402</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>1004</v>
@@ -2453,13 +2429,13 @@
         <v>1080871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M6" s="7">
         <v>1851</v>
@@ -2468,13 +2444,13 @@
         <v>1988273</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2593,13 +2569,13 @@
         <v>60401</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H9" s="7">
         <v>122</v>
@@ -2608,13 +2584,13 @@
         <v>130002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M9" s="7">
         <v>176</v>
@@ -2623,13 +2599,13 @@
         <v>190403</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2620,13 @@
         <v>1903556</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>1511</v>
@@ -2659,28 +2635,28 @@
         <v>1624590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>3313</v>
       </c>
       <c r="N10" s="7">
-        <v>3528146</v>
+        <v>3528147</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2698,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2754,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2769,7 +2745,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2784,7 +2760,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2775,13 @@
         <v>13280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2814,13 +2790,13 @@
         <v>17567</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -2829,13 +2805,13 @@
         <v>30848</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2826,13 @@
         <v>467901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
@@ -2865,13 +2841,13 @@
         <v>441064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>823</v>
@@ -2880,13 +2856,13 @@
         <v>908964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2981,13 @@
         <v>140923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
@@ -3020,13 +2996,13 @@
         <v>404495</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>507</v>
@@ -3035,13 +3011,13 @@
         <v>545418</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3032,13 @@
         <v>3278859</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>2911</v>
@@ -3071,28 +3047,28 @@
         <v>3146525</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M18" s="7">
         <v>5987</v>
       </c>
       <c r="N18" s="7">
-        <v>6425384</v>
+        <v>6425383</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,7 +3110,7 @@
         <v>6494</v>
       </c>
       <c r="N19" s="7">
-        <v>6970802</v>
+        <v>6970801</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3148,7 +3124,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E753C41-AAB3-40F7-8EF6-45FE028758A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2DCEF9-C2EC-4E0A-8C80-DED25D1DDD5D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3184,7 +3160,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3297,7 +3273,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3312,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3342,13 +3318,13 @@
         <v>39540</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>151</v>
@@ -3357,13 +3333,13 @@
         <v>167516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>191</v>
@@ -3372,13 +3348,13 @@
         <v>207056</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3369,13 @@
         <v>714807</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H6" s="7">
         <v>741</v>
@@ -3408,13 +3384,13 @@
         <v>827144</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M6" s="7">
         <v>1463</v>
@@ -3423,13 +3399,13 @@
         <v>1541951</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3518,7 +3494,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3775,7 +3751,7 @@
         <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -3784,13 +3760,13 @@
         <v>27765</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3781,13 @@
         <v>536397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -3820,13 +3796,13 @@
         <v>531863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>1003</v>
@@ -3835,13 +3811,13 @@
         <v>1068261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3936,13 @@
         <v>110570</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -3975,13 +3951,13 @@
         <v>358790</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>433</v>
@@ -3990,13 +3966,13 @@
         <v>469360</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +3987,13 @@
         <v>3267048</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H18" s="7">
         <v>3000</v>
@@ -4026,13 +4002,13 @@
         <v>3173310</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
         <v>6108</v>
@@ -4041,13 +4017,13 @@
         <v>6440358</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4079,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4122,7 +4098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A619F9-52B0-41D2-8290-B176E0275251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F023E33-4B39-41E4-AB6F-1D9510E2855E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4139,7 +4115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4246,10 +4222,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4261,10 +4237,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4276,10 +4252,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4303,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4318,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4333,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,7 +4330,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4369,7 +4345,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4384,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,10 +4428,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -4464,13 +4440,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -4482,10 +4458,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -4509,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4524,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4539,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4536,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4575,7 +4551,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4590,7 +4566,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,7 +4593,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4658,10 +4634,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4673,10 +4649,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4688,10 +4664,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4715,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4745,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4796,7 +4772,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4837,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4879,10 +4855,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4891,13 +4867,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4936,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4951,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,7 +4963,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5002,7 +4978,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,7 +4990,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5044,7 +5020,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5058,7 +5034,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1423-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1423-Estudios-trans_orig.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30334DC0-306C-4BE6-BFED-3BA1ED707CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D6D9E2-FD85-4F42-8029-E33260EB1B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8779D411-72BA-4515-A3E5-C0585D6D20CC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{55441D04-56A6-42C9-A57B-51F46E61A4EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
     <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población con diagnóstico de depresión o ansiedad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -722,6 +723,207 @@
   </si>
   <si>
     <t>93,82%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de depresión o ansiedad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432FB1EC-1205-4878-9A3F-DB058283AAD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6207A961-8BE7-4158-B478-8DB3D5638212}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1284,7 +1486,7 @@
         <v>201</v>
       </c>
       <c r="N4" s="7">
-        <v>203304</v>
+        <v>203303</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1386,7 +1588,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1460,7 +1662,7 @@
         <v>1617</v>
       </c>
       <c r="D8" s="7">
-        <v>1661463</v>
+        <v>1661464</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1511,7 +1713,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1770,7 +1972,7 @@
         <v>3110</v>
       </c>
       <c r="D14" s="7">
-        <v>3175170</v>
+        <v>3175169</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1785,7 +1987,7 @@
         <v>3049</v>
       </c>
       <c r="I14" s="7">
-        <v>3122076</v>
+        <v>3122075</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1800,7 +2002,7 @@
         <v>6159</v>
       </c>
       <c r="N14" s="7">
-        <v>6297244</v>
+        <v>6297245</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1821,7 +2023,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1836,7 +2038,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1851,7 +2053,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1884,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B5D567-B1A5-45C0-91E4-76E6A1D66F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C18AA6-38F5-4B27-AA1D-84570A79CD1F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2071,7 +2273,7 @@
         <v>1004</v>
       </c>
       <c r="I5" s="7">
-        <v>1080871</v>
+        <v>1080872</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>101</v>
@@ -2122,7 +2324,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2241,7 +2443,7 @@
         <v>3313</v>
       </c>
       <c r="N8" s="7">
-        <v>3528147</v>
+        <v>3528146</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>120</v>
@@ -2292,7 +2494,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2396,7 +2598,7 @@
         <v>823</v>
       </c>
       <c r="N11" s="7">
-        <v>908964</v>
+        <v>908965</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>138</v>
@@ -2447,7 +2649,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2635,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C195596E-D6DD-4C93-943A-845DA7CD02DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8A7D56-FFB8-4B61-BA4D-BEABADA912CB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3147,7 +3349,7 @@
         <v>1003</v>
       </c>
       <c r="N11" s="7">
-        <v>1068261</v>
+        <v>1068262</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>209</v>
@@ -3198,7 +3400,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3354,6 +3556,757 @@
       </c>
       <c r="N15" s="7">
         <v>6909718</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0A466C-DCB8-465E-A633-75015A38447E}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>70</v>
+      </c>
+      <c r="D4" s="7">
+        <v>54712</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="7">
+        <v>279</v>
+      </c>
+      <c r="I4" s="7">
+        <v>147236</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="7">
+        <v>349</v>
+      </c>
+      <c r="N4" s="7">
+        <v>201949</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>621</v>
+      </c>
+      <c r="D5" s="7">
+        <v>460226</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1148</v>
+      </c>
+      <c r="I5" s="7">
+        <v>608272</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1769</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1068497</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>691</v>
+      </c>
+      <c r="D6" s="7">
+        <v>514938</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1427</v>
+      </c>
+      <c r="I6" s="7">
+        <v>755508</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2118</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1270446</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>117</v>
+      </c>
+      <c r="D7" s="7">
+        <v>108979</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="7">
+        <v>343</v>
+      </c>
+      <c r="I7" s="7">
+        <v>217897</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M7" s="7">
+        <v>460</v>
+      </c>
+      <c r="N7" s="7">
+        <v>326876</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1875</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2181348</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2578</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2019926</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M8" s="7">
+        <v>4453</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4201274</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1992</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2290327</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2921</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2237823</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4913</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4528150</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7">
+        <v>33676</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="7">
+        <v>69</v>
+      </c>
+      <c r="I10" s="7">
+        <v>47404</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M10" s="7">
+        <v>105</v>
+      </c>
+      <c r="N10" s="7">
+        <v>81079</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>645</v>
+      </c>
+      <c r="D11" s="7">
+        <v>612947</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7">
+        <v>935</v>
+      </c>
+      <c r="I11" s="7">
+        <v>613059</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1580</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1226007</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>681</v>
+      </c>
+      <c r="D12" s="7">
+        <v>646623</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1004</v>
+      </c>
+      <c r="I12" s="7">
+        <v>660463</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1685</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1307086</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>223</v>
+      </c>
+      <c r="D13" s="7">
+        <v>197367</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" s="7">
+        <v>691</v>
+      </c>
+      <c r="I13" s="7">
+        <v>412537</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M13" s="7">
+        <v>914</v>
+      </c>
+      <c r="N13" s="7">
+        <v>609904</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3141</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3254522</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4661</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3241257</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7802</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6495779</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3364</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3451889</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5352</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3653794</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>8716</v>
+      </c>
+      <c r="N15" s="7">
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
